--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>118.40644</v>
-      </c>
-      <c r="C2" t="n">
-        <v>196.03874</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.98804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.13543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83.06958</v>
-      </c>
-      <c r="G2" t="n">
-        <v>228.16517</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17.80308</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48.61633</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32.5611</v>
-      </c>
-      <c r="K2" t="n">
-        <v>182.48137</v>
-      </c>
-      <c r="L2" t="n">
-        <v>55.02623</v>
-      </c>
-      <c r="M2" t="n">
-        <v>44.74975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>218.49918</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164.36238</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.45466</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>226.86638</v>
-      </c>
-      <c r="R2" t="n">
-        <v>122.29718</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>40.1243</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.22565</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.36019</v>
-      </c>
-      <c r="W2" t="n">
-        <v>14.46233</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14.54688</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>79.19883</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>259.82941</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>120.9527</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>40.67732</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.11271</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4121.97</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>417.12199</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.18094</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>106.31021</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>263.33231</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>284.55892</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23.83433</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>99.46657999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>322.03104</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>54.23903</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>189.58693</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12.29252</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>185.63419</v>
-      </c>
-      <c r="C3" t="n">
-        <v>332.27119</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.18798</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.42229</v>
-      </c>
-      <c r="F3" t="n">
-        <v>143.81051</v>
-      </c>
-      <c r="G3" t="n">
-        <v>433.40239</v>
-      </c>
-      <c r="H3" t="n">
-        <v>72.78973999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>76.26541</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55.5888</v>
-      </c>
-      <c r="K3" t="n">
-        <v>298.5683</v>
-      </c>
-      <c r="L3" t="n">
-        <v>84.08096</v>
-      </c>
-      <c r="M3" t="n">
-        <v>81.76652</v>
-      </c>
-      <c r="N3" t="n">
-        <v>387.63624</v>
-      </c>
-      <c r="O3" t="n">
-        <v>239.37536</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.68347</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>364.3222</v>
-      </c>
-      <c r="R3" t="n">
-        <v>196.31003</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.07618</v>
-      </c>
-      <c r="T3" t="n">
-        <v>62.6819</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.73263</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.50922</v>
-      </c>
-      <c r="W3" t="n">
-        <v>25.81693</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19.3155</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>143.89375</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>427.38022</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>204.79211</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>48.8527</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.05949</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6947.43</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>789.43916</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.91467</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>196.22515</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>463.66906</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>441.5525</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>30.6611</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>147.40399</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>518.60743</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>87.01841</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>294.50274</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21.20568</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>288.74106</v>
-      </c>
-      <c r="C4" t="n">
-        <v>506.5484</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.25272</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.29363</v>
-      </c>
-      <c r="F4" t="n">
-        <v>195.60957</v>
-      </c>
-      <c r="G4" t="n">
-        <v>637.88321</v>
-      </c>
-      <c r="H4" t="n">
-        <v>112.72309</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117.01458</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85.35680000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>458.56845</v>
-      </c>
-      <c r="L4" t="n">
-        <v>113.02922</v>
-      </c>
-      <c r="M4" t="n">
-        <v>116.97973</v>
-      </c>
-      <c r="N4" t="n">
-        <v>585.79725</v>
-      </c>
-      <c r="O4" t="n">
-        <v>352.14864</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33.3727</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>537.0344700000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>256.8437</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>87.91701999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.26997</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.37221</v>
-      </c>
-      <c r="W4" t="n">
-        <v>47.68863</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17.31028</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>200.22293</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>636.27903</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>318.0813</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>99.78769</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>10433.8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1246.90278</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.18142</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>285.64749</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>686.41349</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>679.0388400000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>53.8302</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>213.23969</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>770.376</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>111.87649</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>483.67036</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>37.49687</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
